--- a/data/trans_dic/P15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05018871082280588</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04697836555018194</v>
+        <v>0.04697836555018195</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05196720972725593</v>
@@ -685,7 +685,7 @@
         <v>0.05783085040678863</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05361972075916541</v>
+        <v>0.0536197207591654</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06419904486664814</v>
@@ -697,7 +697,7 @@
         <v>0.05360590153892318</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05010023193319176</v>
+        <v>0.05010023193319175</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05196800493908087</v>
+        <v>0.05097936815125308</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05033702909332163</v>
+        <v>0.0510954152567037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03247584467311384</v>
+        <v>0.03108452339093863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03028927733999482</v>
+        <v>0.02951771863958956</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02977310951163187</v>
+        <v>0.03008429735626248</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0306036176807932</v>
+        <v>0.03187534031862278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03612314260049545</v>
+        <v>0.03514245886334909</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04014958187292775</v>
+        <v>0.03998890904361356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04866050581959126</v>
+        <v>0.04733149469752972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04941002782371322</v>
+        <v>0.05020850685636201</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03934179598323746</v>
+        <v>0.03872639789789967</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0382785294601751</v>
+        <v>0.03771626665045535</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0994567387910063</v>
+        <v>0.09853800376303941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1094270094314832</v>
+        <v>0.1086953787648371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07575890134823741</v>
+        <v>0.07674741312099603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06947223557918138</v>
+        <v>0.06857639785147329</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08400539092002393</v>
+        <v>0.08196352190289197</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08792061887909575</v>
+        <v>0.09262606256237735</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08656474510956005</v>
+        <v>0.09133147559934118</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07054403472975075</v>
+        <v>0.0717265335114948</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08424921834315981</v>
+        <v>0.08474548497129913</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09129592490991513</v>
+        <v>0.09136294498730155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07270400816133009</v>
+        <v>0.07143738121832452</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06273356939971032</v>
+        <v>0.06363723398440599</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04469397084522907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05325134079872421</v>
+        <v>0.0532513407987242</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03143196827556331</v>
@@ -833,7 +833,7 @@
         <v>0.05196258530872225</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05595435622429631</v>
+        <v>0.0559543562242963</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04629946873854392</v>
+        <v>0.04478877456371044</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05393211861047428</v>
+        <v>0.05590201081391582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02805150501879437</v>
+        <v>0.02610143691574786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0336072205651235</v>
+        <v>0.03471215338233995</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01595539901883722</v>
+        <v>0.0156482028229506</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05375729857789494</v>
+        <v>0.05313272907892934</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03688644056339515</v>
+        <v>0.03712153193605736</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04184940241385046</v>
+        <v>0.04412552932531472</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03594281245685497</v>
+        <v>0.03565086243171993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05866730601643209</v>
+        <v>0.06000159509235169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03664756912126294</v>
+        <v>0.03772475842437712</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04237477708190648</v>
+        <v>0.04292744790169178</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1026465808292496</v>
+        <v>0.1031634819029874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1084603181943438</v>
+        <v>0.1092000906199611</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07065796459262647</v>
+        <v>0.06839366302422378</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07909357563481254</v>
+        <v>0.07761510189904638</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05335033632047215</v>
+        <v>0.05365572903504338</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1135533931470818</v>
+        <v>0.1166470346067719</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09221580494213187</v>
+        <v>0.09046616289510433</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08021258117174161</v>
+        <v>0.08041340764883488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07081862116103621</v>
+        <v>0.06933078455128473</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09957821487576959</v>
+        <v>0.1010302709773485</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07180775912625902</v>
+        <v>0.0726667744553995</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07365012145976518</v>
+        <v>0.07149587795233268</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05952558228393245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07902916527412707</v>
+        <v>0.07902916527412705</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02954620316374397</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06420429713206628</v>
+        <v>0.06452619959971252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07290966825476132</v>
+        <v>0.07159844972874453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.042398017472911</v>
+        <v>0.04218106009866247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05466485739010904</v>
+        <v>0.05562404230577289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01119359311399319</v>
+        <v>0.01144821600232491</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03536980882020982</v>
+        <v>0.03491698176785592</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03164764560279011</v>
+        <v>0.02725407273364078</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0429125764727458</v>
+        <v>0.0428418684818853</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05605889696704976</v>
+        <v>0.05694607196903315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06577336395044987</v>
+        <v>0.06637493814611777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04321793500807096</v>
+        <v>0.04402122025856321</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05845870422125662</v>
+        <v>0.05825216382050017</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1127379485050815</v>
+        <v>0.1119799681534296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1213381762370558</v>
+        <v>0.1237739780424029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08535459707226593</v>
+        <v>0.08360919763931271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1069083593894294</v>
+        <v>0.104625840132152</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07118084451674447</v>
+        <v>0.06733203955587584</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09740524574688579</v>
+        <v>0.09761248512062147</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1110352311044348</v>
+        <v>0.1063230927510046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1008534998288095</v>
+        <v>0.1023454355101221</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09691822217129263</v>
+        <v>0.09569276792419662</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1050485803510996</v>
+        <v>0.106694120510847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08018544205099903</v>
+        <v>0.08187019146514277</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09811948097159906</v>
+        <v>0.09923939274933748</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04657484906620583</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06432070838387398</v>
+        <v>0.06432070838387396</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06546750280322823</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05440720636427741</v>
+        <v>0.0549744665999559</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06901389986113601</v>
+        <v>0.06752491597896691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04044720275710424</v>
+        <v>0.04014494042548333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05516397386665972</v>
+        <v>0.05334428107218469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04409513070436719</v>
+        <v>0.04410634379834318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.047084963290334</v>
+        <v>0.04746811825445783</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03277492580468644</v>
+        <v>0.03353703824008492</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05047857436467454</v>
+        <v>0.05075777965019899</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05456595498283812</v>
+        <v>0.05441587689557117</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06331199865350845</v>
+        <v>0.06379242217061477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04071657590782948</v>
+        <v>0.04028188627851509</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05683834240965498</v>
+        <v>0.05581394934308531</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08273511955411081</v>
+        <v>0.08328921228241853</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1001575701235163</v>
+        <v>0.09972083897282596</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06608970642938497</v>
+        <v>0.06582457547986122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.092390858318422</v>
+        <v>0.08954731184240487</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07997108368936881</v>
+        <v>0.08013952603642212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0832306024552024</v>
+        <v>0.08211591703172497</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06463663917658381</v>
+        <v>0.06401214970347267</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08104012151271023</v>
+        <v>0.08091966821730442</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07768456478745248</v>
+        <v>0.07865741611582096</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08776377734986562</v>
+        <v>0.08886345330670471</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0600537412606578</v>
+        <v>0.0598197641167341</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08139550968920221</v>
+        <v>0.0790286423209615</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.06033650590899139</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06954510923611182</v>
+        <v>0.0695451092361118</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03674211451220177</v>
+        <v>0.03559505644556014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0550726155579877</v>
+        <v>0.05464058568359696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04893278096993233</v>
+        <v>0.04894152940365862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05035945643052624</v>
+        <v>0.04883592933959221</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0464734114491598</v>
+        <v>0.04438034792704756</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05966294891457479</v>
+        <v>0.05902058643945923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03973613374392404</v>
+        <v>0.039121860043906</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05480548336576989</v>
+        <v>0.05562671864077314</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04735847018734979</v>
+        <v>0.04716346269048034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06279302898796023</v>
+        <v>0.06269558963134926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04757986569169156</v>
+        <v>0.04886066759071661</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05709651410720094</v>
+        <v>0.05677458142130015</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08650437013311764</v>
+        <v>0.08748866095132071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1019524809523638</v>
+        <v>0.1047349946671429</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09042643830312105</v>
+        <v>0.08727257123413631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1064533751425678</v>
+        <v>0.0970606814255574</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08838689947943555</v>
+        <v>0.08446570067652072</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1001500833007986</v>
+        <v>0.09707595233021095</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0734008553315441</v>
+        <v>0.07412815422512632</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08544114315819745</v>
+        <v>0.0860139724911292</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08159640894759802</v>
+        <v>0.07960913160935801</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0922310475044085</v>
+        <v>0.09175071734408348</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07322758491175815</v>
+        <v>0.07540701160969258</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08550340847990458</v>
+        <v>0.08501400180555106</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.05585377377521284</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05827255242952368</v>
+        <v>0.05827255242952369</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05959114386705586</v>
@@ -1377,7 +1377,7 @@
         <v>0.06575573501596962</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05586646990296423</v>
+        <v>0.05586646990296422</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06796586312314563</v>
+        <v>0.06944658056259156</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06617936766815982</v>
+        <v>0.06624363602467301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06994327064165476</v>
+        <v>0.06908619876339796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01713040142780855</v>
+        <v>0.01732346055309425</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03925570651822637</v>
+        <v>0.03951919517778625</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0641090150049502</v>
+        <v>0.06505719444642365</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04155139988979379</v>
+        <v>0.0419684449318875</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04500284769766341</v>
+        <v>0.04484229752000156</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04856686431383567</v>
+        <v>0.04840132888145807</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07023274721377598</v>
+        <v>0.07026502211228146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0523284838572327</v>
+        <v>0.05181521175385514</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04324980156883822</v>
+        <v>0.04327376756010914</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1366571412950237</v>
+        <v>0.1396214815971296</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.141683047866412</v>
+        <v>0.1390486158065706</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1465639965392152</v>
+        <v>0.1445026452218136</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1000750895266201</v>
+        <v>0.09769865442961929</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06345110733151996</v>
+        <v>0.06507456270978899</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09954725626766951</v>
+        <v>0.09802299915972329</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07113085587212876</v>
+        <v>0.0724469900284716</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07509869838179832</v>
+        <v>0.07685710298372207</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0728115455281894</v>
+        <v>0.07312259588450284</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1019716986336903</v>
+        <v>0.1001889564552469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08140389898526124</v>
+        <v>0.08009964944016573</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07377476002808604</v>
+        <v>0.07369488835221545</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.05421160032972776</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.06200474917778972</v>
+        <v>0.06200474917778973</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.06278130254074424</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06525161203185738</v>
+        <v>0.06446370680428934</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07458556419845189</v>
+        <v>0.0753035354462074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05152705203192301</v>
+        <v>0.05103367516312651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05518087565184929</v>
+        <v>0.05447928755327571</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04491257371361561</v>
+        <v>0.04518719923569275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06420331300292269</v>
+        <v>0.06448408849150054</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04610065629205914</v>
+        <v>0.04688872295034282</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05575450280497037</v>
+        <v>0.05561339759092068</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05699309036924707</v>
+        <v>0.05722227463813543</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07145044056825378</v>
+        <v>0.07243205371048748</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05121359871302329</v>
+        <v>0.05151909843074427</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05701118426180161</v>
+        <v>0.05718146884197216</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08370626266138491</v>
+        <v>0.08287229258645867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09474226466730239</v>
+        <v>0.09404761914950689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06791039905176012</v>
+        <v>0.06777483332688035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07404409165111547</v>
+        <v>0.07344983103069146</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06037131604348341</v>
+        <v>0.05970586207147234</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0816228464542233</v>
+        <v>0.08170455443810326</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06202137948986044</v>
+        <v>0.06311628672463025</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06903169031516848</v>
+        <v>0.0690090403211316</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06926987850899172</v>
+        <v>0.06918248771191547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0850145422790991</v>
+        <v>0.08476497068286257</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06218783501045237</v>
+        <v>0.06255558550859813</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06820856042818033</v>
+        <v>0.06868084731559934</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24621</v>
+        <v>24153</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22008</v>
+        <v>22339</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13935</v>
+        <v>13338</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16678</v>
+        <v>16253</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9131</v>
+        <v>9226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9623</v>
+        <v>10023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12537</v>
+        <v>12196</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19609</v>
+        <v>19531</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37977</v>
+        <v>36940</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>37140</v>
+        <v>37740</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30535</v>
+        <v>30057</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>39773</v>
+        <v>39188</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47120</v>
+        <v>46685</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47843</v>
+        <v>47523</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32508</v>
+        <v>32932</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38253</v>
+        <v>37759</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25763</v>
+        <v>25137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27647</v>
+        <v>29127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30043</v>
+        <v>31697</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34454</v>
+        <v>35032</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65753</v>
+        <v>66140</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>68624</v>
+        <v>68674</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56429</v>
+        <v>55446</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>65182</v>
+        <v>66121</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16989</v>
+        <v>16435</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22587</v>
+        <v>23412</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10582</v>
+        <v>9846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16239</v>
+        <v>16773</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5933</v>
+        <v>5819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18171</v>
+        <v>17959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13732</v>
+        <v>13819</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17708</v>
+        <v>18671</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>26555</v>
+        <v>26339</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44400</v>
+        <v>45410</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27467</v>
+        <v>28275</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38407</v>
+        <v>38908</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37665</v>
+        <v>37854</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45423</v>
+        <v>45733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26654</v>
+        <v>25800</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38219</v>
+        <v>37505</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19839</v>
+        <v>19953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38382</v>
+        <v>39428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34329</v>
+        <v>33678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33941</v>
+        <v>34026</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>52321</v>
+        <v>51222</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>75362</v>
+        <v>76461</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53820</v>
+        <v>54464</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>66753</v>
+        <v>64801</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34824</v>
+        <v>34998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45890</v>
+        <v>45065</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22128</v>
+        <v>22015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25781</v>
+        <v>26233</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1878</v>
+        <v>1921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9201</v>
+        <v>9083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5257</v>
+        <v>4528</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8046</v>
+        <v>8033</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39811</v>
+        <v>40441</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58508</v>
+        <v>59043</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29735</v>
+        <v>30288</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38531</v>
+        <v>38395</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61148</v>
+        <v>60737</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>76372</v>
+        <v>77905</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44548</v>
+        <v>43637</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50419</v>
+        <v>49343</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11943</v>
+        <v>11297</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25338</v>
+        <v>25392</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18446</v>
+        <v>17663</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18910</v>
+        <v>19189</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68829</v>
+        <v>67958</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93445</v>
+        <v>94909</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>55170</v>
+        <v>56330</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>64671</v>
+        <v>65410</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67374</v>
+        <v>68077</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79988</v>
+        <v>78262</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46500</v>
+        <v>46152</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>62437</v>
+        <v>60377</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31496</v>
+        <v>31504</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36098</v>
+        <v>36392</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27068</v>
+        <v>27697</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>43473</v>
+        <v>43713</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>106547</v>
+        <v>106254</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>121918</v>
+        <v>122843</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>80436</v>
+        <v>79577</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>113282</v>
+        <v>111240</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102454</v>
+        <v>103140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>116084</v>
+        <v>115577</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75979</v>
+        <v>75674</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>104572</v>
+        <v>101353</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57122</v>
+        <v>57242</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>63809</v>
+        <v>62955</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53382</v>
+        <v>52866</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69793</v>
+        <v>69689</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>151688</v>
+        <v>153588</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>169004</v>
+        <v>171121</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>118637</v>
+        <v>118175</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>162226</v>
+        <v>157508</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12880</v>
+        <v>12478</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28120</v>
+        <v>27899</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30373</v>
+        <v>30378</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28602</v>
+        <v>27737</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26432</v>
+        <v>25241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45435</v>
+        <v>44945</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29335</v>
+        <v>28881</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45535</v>
+        <v>46217</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43537</v>
+        <v>43358</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>79880</v>
+        <v>79756</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>64659</v>
+        <v>66399</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>79867</v>
+        <v>79417</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30325</v>
+        <v>30670</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52057</v>
+        <v>53477</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>56128</v>
+        <v>54171</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>60462</v>
+        <v>55127</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50270</v>
+        <v>48040</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>76266</v>
+        <v>73925</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>54188</v>
+        <v>54725</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>70989</v>
+        <v>71465</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>75012</v>
+        <v>73185</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>117329</v>
+        <v>116718</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>99513</v>
+        <v>102474</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>119603</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20267</v>
+        <v>20709</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>17662</v>
+        <v>17679</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20084</v>
+        <v>19838</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4064</v>
+        <v>4110</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>49021</v>
+        <v>49350</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>71119</v>
+        <v>72171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>44960</v>
+        <v>45411</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>37995</v>
+        <v>37859</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>75131</v>
+        <v>74875</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>96657</v>
+        <v>96701</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>71647</v>
+        <v>70944</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>46775</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>40751</v>
+        <v>41635</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>37813</v>
+        <v>37110</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>42085</v>
+        <v>41493</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23741</v>
+        <v>23177</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>79235</v>
+        <v>81263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>110433</v>
+        <v>108742</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>76965</v>
+        <v>78389</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>63404</v>
+        <v>64889</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>112637</v>
+        <v>113118</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>140337</v>
+        <v>137883</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>111456</v>
+        <v>109670</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>79788</v>
+        <v>79702</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>213385</v>
+        <v>210809</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>255225</v>
+        <v>257682</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>174456</v>
+        <v>172786</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>189959</v>
+        <v>187544</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>151720</v>
+        <v>152648</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>227930</v>
+        <v>228927</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>162809</v>
+        <v>165592</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>202690</v>
+        <v>202177</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>378908</v>
+        <v>380432</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>498155</v>
+        <v>504999</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>354261</v>
+        <v>356374</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>403518</v>
+        <v>404723</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>273735</v>
+        <v>271008</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>324200</v>
+        <v>321822</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>229926</v>
+        <v>229467</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>254895</v>
+        <v>252849</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>203942</v>
+        <v>201694</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>289771</v>
+        <v>290061</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>219034</v>
+        <v>222901</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>250957</v>
+        <v>250875</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>460528</v>
+        <v>459947</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>592724</v>
+        <v>590984</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>430173</v>
+        <v>432717</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>482771</v>
+        <v>486114</v>
       </c>
     </row>
     <row r="32">
